--- a/dev/json/gelaendeList.xlsx
+++ b/dev/json/gelaendeList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_49E3DC26A747659F581C33AF9EB2EEB45EB43939" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383C98B4-CB17-4CB0-A6A9-C5358B340833}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_49E3DC26A747659F581C33AF9EB2EEB45EB43939" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B87535-043F-4BF2-A8B6-7F34EACDE931}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>#リンク</t>
   </si>
   <si>
-    <t>active</t>
+    <t>state</t>
   </si>
   <si>
     <t>name</t>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.399999999999999"/>

--- a/dev/json/gelaendeList.xlsx
+++ b/dev/json/gelaendeList.xlsx
@@ -158,7 +158,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M\月D\日"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -257,7 +257,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.58"/>
   </cols>
@@ -396,7 +396,7 @@
         <v>44541</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44647</v>
+        <v>44647.9999884259</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -410,7 +410,7 @@
         <v>44548</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44661</v>
+        <v>44661.9999884259</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -424,7 +424,7 @@
         <v>44548</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44668</v>
+        <v>44668.9999884259</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -438,7 +438,7 @@
         <v>44549</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44661</v>
+        <v>44661.9999884259</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -452,7 +452,7 @@
         <v>44559</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44689</v>
+        <v>44689.9999884259</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
